--- a/cat-zson/src/main/resources/excel/cw.宠物前缀.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物前缀.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>key</t>
   </si>
@@ -87,7 +87,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>rate</t>
+    <t>weight</t>
   </si>
   <si>
     <t>attributePoint</t>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>output</t>
@@ -293,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -319,84 +322,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,6 +420,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -416,11 +443,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,29 +461,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,25 +499,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,157 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +724,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -735,35 +753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,11 +779,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,17 +801,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,7 +1338,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1348,7 +1351,7 @@
     <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:8">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -1402,28 +1405,28 @@
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
@@ -1434,56 +1437,56 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
         <v>6800</v>
@@ -1493,21 +1496,21 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>400</v>
@@ -1516,24 +1519,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
@@ -1542,24 +1545,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -1568,24 +1571,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
@@ -1594,24 +1597,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3">
         <v>400</v>
@@ -1620,24 +1623,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -1646,24 +1649,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1672,24 +1675,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1698,24 +1701,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1724,24 +1727,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1750,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
